--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Julia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061A1B1-86DD-4354-B86C-E851109959DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEEAE15-6161-46C6-AFCA-FDBCCD7E7526}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{ACEA2119-F138-49F1-A9DD-E44345D3EE77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -78,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,9 +186,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>FLOP/s</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -209,48 +212,36 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$13:$I$17</c:f>
+              <c:f>Sheet1!$I$18:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14479898.993509499</c:v>
+                  <c:v>199175228.723483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68842217.293317795</c:v>
+                  <c:v>288809352.80171502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71025448.032379106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91114856.029995799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65314251.625096701</c:v>
+                  <c:v>225292473.357366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$17</c:f>
+              <c:f>Sheet1!$E$18:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40720221606648199</c:v>
+                  <c:v>4.0489999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1736111111111111</c:v>
+                  <c:v>9.0594796453505983E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1020408163265307E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0645161290322578E-3</c:v>
+                  <c:v>5.6725548298414488E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,7 +404,7 @@
         <c:axId val="500670936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -728,48 +719,36 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$17</c:f>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>9801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
+                  <c:v>25710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$13:$K$17</c:f>
+              <c:f>Sheet1!$K$18:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8939772999999999E-3</c:v>
+                  <c:v>17.6194633273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7487771999999901E-3</c:v>
+                  <c:v>14.386518966899899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0180407999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3974089999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.08607537E-2</c:v>
+                  <c:v>126.9470722967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +871,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1246,48 +1225,36 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$17</c:f>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>9801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
+                  <c:v>25710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$13:$M$17</c:f>
+              <c:f>Sheet1!$M$18:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27424.6</c:v>
+                  <c:v>28600219903.200001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120389.7</c:v>
+                  <c:v>4154961231.9000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214357.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>582899</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>709362</c:v>
+                  <c:v>3509360638.1999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,7 +1363,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3669,10 +3636,14 @@
   <dimension ref="C10:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -3797,6 +3768,69 @@
       </c>
       <c r="M17">
         <v>709362</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E18">
+        <f>G18 / (C18* C18)</f>
+        <v>4.0489999999999998E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3279690</v>
+      </c>
+      <c r="I18">
+        <v>199175228.723483</v>
+      </c>
+      <c r="K18">
+        <v>17.6194633273</v>
+      </c>
+      <c r="M18">
+        <v>28600219903.200001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>9801</v>
+      </c>
+      <c r="E19">
+        <f>G19 / (C19* C19)</f>
+        <v>9.0594796453505983E-4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>87025</v>
+      </c>
+      <c r="I19">
+        <v>288809352.80171502</v>
+      </c>
+      <c r="K19">
+        <v>14.386518966899899</v>
+      </c>
+      <c r="M19">
+        <v>4154961231.9000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>25710</v>
+      </c>
+      <c r="E20">
+        <f>G20 / (C20* C20)</f>
+        <v>5.6725548298414488E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3749582</v>
+      </c>
+      <c r="I20">
+        <v>225292473.357366</v>
+      </c>
+      <c r="K20">
+        <v>126.9470722967</v>
+      </c>
+      <c r="M20">
+        <v>3509360638.1999998</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
@@ -3806,10 +3840,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C13:M17">
-    <sortCondition ref="C13:C17"/>
+  <sortState ref="C18:M20">
+    <sortCondition ref="C18:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>